--- a/TestInput.xlsx
+++ b/TestInput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\streamlit\demos\Sequestrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D68B11-28A7-431E-9BE1-6694DA916B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65E1D19-D8CC-4CA4-AFD0-9977621E71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{715AA4C4-D452-40C8-87FD-9FD8322D773E}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{715AA4C4-D452-40C8-87FD-9FD8322D773E}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -81,22 +81,16 @@
     <t>carl1-2h</t>
   </si>
   <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
     <t>carlos1</t>
   </si>
   <si>
     <t>carlos1-2h</t>
   </si>
   <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
   </si>
 </sst>
 </file>
@@ -457,24 +451,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE58AF3-FBFD-4B30-B574-CF02EE6C3276}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +493,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -519,8 +519,14 @@
       <c r="H2" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>35.882237025165502</v>
+      </c>
+      <c r="J2">
+        <v>-97.112224294255299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -539,8 +545,14 @@
       <c r="H3" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>36.139052027267098</v>
+      </c>
+      <c r="J3">
+        <v>-97.0565100048305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -559,45 +571,11 @@
       <c r="H4" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>90</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>90</v>
-      </c>
-      <c r="H6" s="1">
-        <v>60</v>
+      <c r="I4">
+        <v>36.026137827693297</v>
+      </c>
+      <c r="J4">
+        <v>-96.890241454098103</v>
       </c>
     </row>
   </sheetData>
@@ -607,25 +585,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE8D3C0-B2DD-4F1C-A03D-5E407E0EBF18}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD10"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.15625" customWidth="1"/>
+    <col min="8" max="8" width="9.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,8 +628,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -670,8 +654,14 @@
       <c r="H2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>35.958054519631403</v>
+      </c>
+      <c r="J2">
+        <v>-96.724197719777095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -690,13 +680,19 @@
       <c r="H3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>36.205883132892197</v>
+      </c>
+      <c r="J3">
+        <v>-96.722821426152606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>80</v>
@@ -710,13 +706,19 @@
       <c r="H4">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>35.958054519631403</v>
+      </c>
+      <c r="J4">
+        <v>-96.722821426152606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -730,45 +732,11 @@
       <c r="H5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>-50</v>
-      </c>
-      <c r="G6">
-        <v>55</v>
-      </c>
-      <c r="H6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>-50</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
+      <c r="I5">
+        <v>36.205883132892197</v>
+      </c>
+      <c r="J5">
+        <v>-96.724197719777095</v>
       </c>
     </row>
   </sheetData>

--- a/TestInput.xlsx
+++ b/TestInput.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\streamlit\demos\Sequestrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65E1D19-D8CC-4CA4-AFD0-9977621E71CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE47BB14-6531-4279-A850-212F20D15D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{715AA4C4-D452-40C8-87FD-9FD8322D773E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>Storage Capacity (MTCO2)</t>
-  </si>
-  <si>
-    <t>carl1</t>
-  </si>
-  <si>
-    <t>carl1-2h</t>
   </si>
   <si>
     <t>carlos1</t>
@@ -494,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -585,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE8D3C0-B2DD-4F1C-A03D-5E407E0EBF18}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -629,113 +623,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>-31</v>
+        <v>-55</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>35.958054519631403</v>
       </c>
       <c r="J2">
-        <v>-96.724197719777095</v>
+        <v>-96.722821426152606</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>-31</v>
+        <v>-80</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>36.205883132892197</v>
       </c>
       <c r="J3">
-        <v>-96.722821426152606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>-55</v>
-      </c>
-      <c r="G4">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>85</v>
-      </c>
-      <c r="I4">
-        <v>35.958054519631403</v>
-      </c>
-      <c r="J4">
-        <v>-96.722821426152606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <v>-80</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>36.205883132892197</v>
-      </c>
-      <c r="J5">
         <v>-96.724197719777095</v>
       </c>
     </row>
